--- a/data/resumes_scrubbed/confirmations/105_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/105_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D659CEF-46E8-4C66-9AD8-3508D4B9CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:40009_{2D659CEF-46E8-4C66-9AD8-3508D4B9CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA806EB-1618-4172-A463-CC41D98EEDA1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105_1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Total returned to the White House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Air Force</t>
   </si>
@@ -46,18 +37,6 @@
     <t>Civilian (other than lists)</t>
   </si>
   <si>
-    <t xml:space="preserve">     Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total nominations received </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total confirmed </t>
   </si>
   <si>
@@ -86,12 +65,75 @@
   </si>
   <si>
     <t>Civilian (FS, PHS, CG, NOAA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (other than lists), New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (other than lists), Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (other than lists), Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (other than lists), Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Unconfirmed </t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
+  </si>
+  <si>
+    <t>Total returned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -639,6 +681,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,8 +1003,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,15 +1016,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>105</v>
@@ -986,7 +1032,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -994,7 +1040,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>35433</v>
@@ -1002,7 +1048,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>35747</v>
@@ -1010,12 +1056,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>98</v>
@@ -1023,7 +1069,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>361</v>
@@ -1031,7 +1077,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>124</v>
@@ -1039,7 +1085,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>13</v>
@@ -1047,12 +1093,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>3105</v>
@@ -1060,7 +1106,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>3019</v>
@@ -1068,7 +1114,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>86</v>
@@ -1076,12 +1122,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
         <v>8141</v>
@@ -1089,7 +1135,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
         <v>8120</v>
@@ -1097,7 +1143,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>21</v>
@@ -1105,12 +1151,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
         <v>6244</v>
@@ -1118,7 +1164,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>6244</v>
@@ -1126,7 +1172,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -1134,12 +1180,12 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>6157</v>
@@ -1147,7 +1193,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>6153</v>
@@ -1155,7 +1201,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -1163,12 +1209,12 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3">
         <v>1679</v>
@@ -1176,7 +1222,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3">
         <v>1679</v>
@@ -1184,7 +1230,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1192,46 +1238,41 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>25828</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3">
-        <v>25828</v>
+        <v>25576</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3">
-        <v>25576</v>
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
         <v>13</v>
-      </c>
-      <c r="B34" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2">
         <v>2</v>
       </c>
     </row>
